--- a/output/risk/KHM_osm_tc_EC-Earth3P-HR_risk.xlsx
+++ b/output/risk/KHM_osm_tc_EC-Earth3P-HR_risk.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:CG4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,17 +438,422 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>W5_1</t>
+          <t>W5_1_1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>W5_2</t>
+          <t>W5_1_2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>W5_3</t>
+          <t>W5_1_3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_6</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_7</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_8</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_9</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_10</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_3</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_4</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_5</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_6</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_7</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_8</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_9</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_10</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_11</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_12</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_1</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_2</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_3</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_4</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_5</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_6</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_7</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_8</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_9</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_10</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_11</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_12</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_1</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_2</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_3</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_4</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_5</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_6</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_7</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_8</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_9</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_10</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_11</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_12</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_1</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_3</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_4</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_5</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_6</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_7</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_8</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_9</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_10</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_11</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_12</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_1</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_3</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_4</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_5</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_6</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_7</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_8</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_9</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_10</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_11</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_12</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_1</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_3</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_4</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_5</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_6</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_7</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_8</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_9</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_10</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_11</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_12</t>
         </is>
       </c>
     </row>
@@ -459,13 +864,256 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>379135.659034269</v>
+        <v>4011584.709564427</v>
       </c>
       <c r="C2" t="n">
-        <v>478777.882896081</v>
+        <v>4412743.180520868</v>
       </c>
       <c r="D2" t="n">
-        <v>406781.1517992065</v>
+        <v>5215060.122433754</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6538883.076590014</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7192778.552059694</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8500545.610296791</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2687761.755408165</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2956530.763138304</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3494092.671300841</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4381061.457323236</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4819158.045974656</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5695375.115979755</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2861121.186714784</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3147233.305386262</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3719457.542729218</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4663627.534345097</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5129995.399967551</v>
+      </c>
+      <c r="S2" t="n">
+        <v>6062714.090585979</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1916951.195098905</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2108641.20242085</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2492038.257691225</v>
+      </c>
+      <c r="W2" t="n">
+        <v>3124637.434668073</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3437094.361884288</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>4062025.256943199</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>518366.7145661294</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>570203.3860227423</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>673876.7289359681</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>844937.7447427908</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>929432.4454232306</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1098418.759430241</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>347305.6987593067</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>382035.3424290767</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>451497.7171224856</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>566109.554792756</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>622719.2753304841</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>735941.803759809</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>3981497.980032841</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>4379647.778036125</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5175947.374042694</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>6489841.70745353</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>7138832.992251259</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>8436791.848338798</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>2667603.646622004</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>2934356.897231827</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3467887.111959396</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>4348203.666532112</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>4783014.547782157</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>5652660.023790163</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>8156051.232328753</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>8971656.355561625</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>10602866.60202738</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>13294363.50869586</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>14623814.43261709</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>17282667.70362075</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>5464554.325660264</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>6010995.185174653</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>7103925.481042221</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>8907243.467330132</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>9797948.383327631</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>11579406.79216141</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>9131702.527527738</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>10044872.78028051</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>11871213.28578606</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>14884675.11987021</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>16373158.94818098</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>19350072.21705669</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>6118240.693443583</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>6730048.446464188</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>7953718.340251245</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>9972754.629288839</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>10970008.33711939</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>12964570.14052632</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>9189233.653595738</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>10108157.01895531</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>11946003.74967445</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>14978450.85536105</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>16476312.36001625</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>19471980.63892967</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>6156786.547909143</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>6772448.783580963</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>8003827.985321585</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>10035584.51255467</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>11039121.07165134</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>13046248.92024167</v>
       </c>
     </row>
     <row r="3">
@@ -475,13 +1123,256 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>284351.7442757018</v>
+        <v>3008688.53217332</v>
       </c>
       <c r="C3" t="n">
-        <v>359083.4121720607</v>
+        <v>3309557.385390652</v>
       </c>
       <c r="D3" t="n">
-        <v>305085.8638494049</v>
+        <v>3911295.091825316</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4904162.307442511</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5394583.914044771</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6375409.207722594</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2015821.316556124</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2217398.072353728</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2620569.503475631</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3285796.092992428</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3614368.534480992</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4271531.336984817</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2145840.890036088</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2360424.979039697</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2789593.157046914</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3497720.650758823</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3847496.549975663</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4547035.567939483</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1437713.396324179</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1581480.901815638</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1869028.693268418</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2343478.076001056</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2577820.771413216</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>3046518.942707399</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>388775.0359245972</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>427652.5395170567</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>505407.5467019762</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>633703.308557093</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>697074.3340674229</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>823814.0695726811</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>260479.27406948</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>286526.5068218075</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>338623.2878418641</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>424582.166094567</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>467039.4564978631</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>551956.352819857</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>2986123.485024631</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>3284735.833527094</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3881960.53053202</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>4867381.280590149</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>5354124.744188445</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>6327593.886254098</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>2000702.734966503</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2200767.67292387</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2600915.333969547</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>3261152.749899085</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>3587260.910836617</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4239495.017842622</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>6117038.424246565</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>6728742.26667122</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>7952149.951520533</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>9970772.631521899</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>10967860.82446282</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>12962000.77771556</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>4098415.744245198</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>4508246.388880991</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>5327944.110781666</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>6680432.6004976</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>7348461.287495722</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>8684555.094121061</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>6848776.895645806</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>7533654.585210383</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>8903409.964339545</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>11163506.33990266</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>12279869.21113574</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>14512554.16279252</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>4588680.520082688</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>5047536.334848141</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>5965288.755188433</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>7479565.971966629</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>8227506.252839538</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>9723427.605394742</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>6891925.240196805</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>7581117.764216483</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>8959502.812255843</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>11233838.14152079</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>12357234.27001219</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>14603985.47919725</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>4617589.910931858</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>5079336.587685723</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>6002870.988991189</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>7526688.384416001</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>8279340.803738507</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>9784686.690181255</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +1382,256 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473919.5737928363</v>
+        <v>5014480.886955533</v>
       </c>
       <c r="C4" t="n">
-        <v>598472.3536201012</v>
+        <v>5515928.975651086</v>
       </c>
       <c r="D4" t="n">
-        <v>508476.4397490082</v>
+        <v>6518825.153042194</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8173603.845737521</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8990973.190074617</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10625682.01287099</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3359702.194260207</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3695663.453922879</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4367615.839126051</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5476326.821654046</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6023947.557468318</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7119218.894974695</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3576401.48339348</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3934041.631732828</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4649321.928411524</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5829534.417931373</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6412494.249959441</v>
+      </c>
+      <c r="S4" t="n">
+        <v>7578392.613232475</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2396188.993873632</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2635801.503026063</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3115047.822114031</v>
+      </c>
+      <c r="W4" t="n">
+        <v>3905796.793335092</v>
+      </c>
+      <c r="X4" t="n">
+        <v>4296367.952355359</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>5077531.571178999</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>647958.3932076619</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>712754.2325284278</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>842345.9111699602</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1056172.180928489</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1161790.556779038</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1373023.449287802</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>434132.1234491334</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>477544.1780363459</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>564372.146403107</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>707636.9434909452</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>778399.0941631051</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>919927.2546997615</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>4976872.475041051</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>5474559.722545156</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>6469934.217553366</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>8112302.134316915</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>8923541.240314078</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>10545989.8104235</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>3334504.558277505</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>3667946.121539784</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>4334858.889949246</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>5435254.583165141</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>5978768.184727693</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>7065825.029737705</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>10195064.04041094</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>11214570.44445203</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>13253583.25253422</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>16617954.38586984</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>18279768.04077136</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>21603334.62952594</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>6830692.907075331</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>7513743.981468318</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>8879906.851302776</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>11134054.33416267</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>12247435.47915954</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>14474258.49020177</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>11414628.15940967</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>12556090.97535064</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>14839016.60723257</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>18605843.89983777</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>20466448.68522624</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>24187590.27132087</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>7647800.866804481</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>8412560.558080237</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>9942147.925314056</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>12465943.28661105</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>13712510.42139923</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>16205712.6756579</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>11486542.06699467</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>12635196.27369414</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>14932504.68709307</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>18723063.56920132</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>20595390.45002032</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>24339975.79866209</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>7695983.184886431</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>8465560.979476202</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>10004784.98165198</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>12544480.64069333</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>13798901.33956417</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>16307811.15030209</v>
       </c>
     </row>
   </sheetData>
@@ -511,7 +1645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,25 +1766,30 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
+          <t>W3_23</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>W3_24</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>W3_25</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>W3_26</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>W3_27</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>W3_28</t>
         </is>
@@ -663,85 +1802,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1.794400473371655e-254</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.485152456452712e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2.239065230250879</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>70910.35469356274</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2596.214077465258</v>
       </c>
       <c r="G2" t="n">
-        <v>8050.348212513203</v>
+        <v>75448.92975931022</v>
       </c>
       <c r="H2" t="n">
-        <v>26633402.58171616</v>
+        <v>79473.26603423625</v>
       </c>
       <c r="I2" t="n">
-        <v>125666502.993764</v>
+        <v>71703.46915625905</v>
       </c>
       <c r="J2" t="n">
-        <v>178868070.3520588</v>
+        <v>57041.06364133741</v>
       </c>
       <c r="K2" t="n">
-        <v>266852136.90365</v>
+        <v>36179.69720630578</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>393000.2191102642</v>
       </c>
       <c r="M2" t="n">
-        <v>758470.7105521025</v>
+        <v>832321.625249939</v>
       </c>
       <c r="N2" t="n">
-        <v>1771206.741281992</v>
+        <v>862152.4604531461</v>
       </c>
       <c r="O2" t="n">
-        <v>-647298.4466570006</v>
+        <v>86334.04891989345</v>
       </c>
       <c r="P2" t="n">
-        <v>-647298.4466570006</v>
+        <v>210918.4551597841</v>
       </c>
       <c r="Q2" t="n">
-        <v>-7.956250347626075e-07</v>
+        <v>31573.46326562869</v>
       </c>
       <c r="R2" t="n">
-        <v>34008183.89643426</v>
+        <v>1148014.981278008</v>
       </c>
       <c r="S2" t="n">
-        <v>12372202.16049731</v>
+        <v>1134775.83630381</v>
       </c>
       <c r="T2" t="n">
-        <v>2598211.657641087</v>
+        <v>1086378.494198893</v>
       </c>
       <c r="U2" t="n">
-        <v>2592103.308415207</v>
+        <v>978738.4760317496</v>
       </c>
       <c r="V2" t="n">
-        <v>-473266.9418965442</v>
+        <v>804413.0589028427</v>
       </c>
       <c r="W2" t="n">
-        <v>656141.5253995334</v>
+        <v>607793.6292898646</v>
       </c>
       <c r="X2" t="n">
-        <v>113906.3168836146</v>
+        <v>436693.3239243755</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>300774.8332965322</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>216345.1929755442</v>
       </c>
       <c r="AA2" t="n">
-        <v>741134.9994473258</v>
+        <v>154114.984256682</v>
       </c>
       <c r="AB2" t="n">
-        <v>654150.1402929267</v>
+        <v>5588.269988721259</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>22850.58628424605</v>
       </c>
     </row>
     <row r="3">
@@ -751,85 +1893,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1.345800355028741e-254</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.113864342339534e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.679298922688159</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>53182.76602017204</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1947.160558098943</v>
       </c>
       <c r="G3" t="n">
-        <v>6037.761159384903</v>
+        <v>56586.69731948266</v>
       </c>
       <c r="H3" t="n">
-        <v>19975051.93628713</v>
+        <v>59604.94952567718</v>
       </c>
       <c r="I3" t="n">
-        <v>94249877.24532302</v>
+        <v>53777.60186719428</v>
       </c>
       <c r="J3" t="n">
-        <v>134151052.7640441</v>
+        <v>42780.79773100306</v>
       </c>
       <c r="K3" t="n">
-        <v>200139102.6777374</v>
+        <v>27134.77290472933</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>294750.1643326982</v>
       </c>
       <c r="M3" t="n">
-        <v>568853.0329140772</v>
+        <v>624241.218937454</v>
       </c>
       <c r="N3" t="n">
-        <v>1328405.055961495</v>
+        <v>646614.3453398595</v>
       </c>
       <c r="O3" t="n">
-        <v>-485473.8349927508</v>
+        <v>64750.53668992007</v>
       </c>
       <c r="P3" t="n">
-        <v>-485473.8349927508</v>
+        <v>158188.8413698381</v>
       </c>
       <c r="Q3" t="n">
-        <v>-5.967187760719557e-07</v>
+        <v>23680.09744922151</v>
       </c>
       <c r="R3" t="n">
-        <v>25506137.9223257</v>
+        <v>861011.235958506</v>
       </c>
       <c r="S3" t="n">
-        <v>9279151.620372979</v>
+        <v>851081.8772278572</v>
       </c>
       <c r="T3" t="n">
-        <v>1948658.743230819</v>
+        <v>814783.8706491695</v>
       </c>
       <c r="U3" t="n">
-        <v>1944077.481311405</v>
+        <v>734053.8570238122</v>
       </c>
       <c r="V3" t="n">
-        <v>-354950.2064224078</v>
+        <v>603309.7941771318</v>
       </c>
       <c r="W3" t="n">
-        <v>492106.1440496501</v>
+        <v>455845.2219673982</v>
       </c>
       <c r="X3" t="n">
-        <v>85429.73766271095</v>
+        <v>327519.9929432815</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>225581.1249723991</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>162258.8947316581</v>
       </c>
       <c r="AA3" t="n">
-        <v>555851.2495854949</v>
+        <v>115586.2381925115</v>
       </c>
       <c r="AB3" t="n">
-        <v>490612.6052196953</v>
+        <v>4191.202491540944</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>17137.93971318453</v>
       </c>
     </row>
     <row r="4">
@@ -839,85 +1984,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2.243000591714569e-254</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1.85644057056589e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2.798831537813599</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>88637.94336695343</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>3245.267596831573</v>
       </c>
       <c r="G4" t="n">
-        <v>10062.93526564151</v>
+        <v>94311.16219913781</v>
       </c>
       <c r="H4" t="n">
-        <v>33291753.22714521</v>
+        <v>99341.58254279532</v>
       </c>
       <c r="I4" t="n">
-        <v>157083128.742205</v>
+        <v>89629.33644532383</v>
       </c>
       <c r="J4" t="n">
-        <v>223585087.9400736</v>
+        <v>71301.32955167179</v>
       </c>
       <c r="K4" t="n">
-        <v>333565171.1295624</v>
+        <v>45224.62150788222</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>491250.2738878304</v>
       </c>
       <c r="M4" t="n">
-        <v>948088.3881901288</v>
+        <v>1040402.031562424</v>
       </c>
       <c r="N4" t="n">
-        <v>2214008.426602491</v>
+        <v>1077690.575566433</v>
       </c>
       <c r="O4" t="n">
-        <v>-809123.058321252</v>
+        <v>107917.5611498668</v>
       </c>
       <c r="P4" t="n">
-        <v>-809123.058321252</v>
+        <v>263648.0689497302</v>
       </c>
       <c r="Q4" t="n">
-        <v>-9.945312934532595e-07</v>
+        <v>39466.82908203587</v>
       </c>
       <c r="R4" t="n">
-        <v>42510229.87054284</v>
+        <v>1435018.72659751</v>
       </c>
       <c r="S4" t="n">
-        <v>15465252.70062163</v>
+        <v>1418469.795379762</v>
       </c>
       <c r="T4" t="n">
-        <v>3247764.572051364</v>
+        <v>1357973.117748616</v>
       </c>
       <c r="U4" t="n">
-        <v>3240129.135519009</v>
+        <v>1223423.095039687</v>
       </c>
       <c r="V4" t="n">
-        <v>-591583.677370679</v>
+        <v>1005516.323628553</v>
       </c>
       <c r="W4" t="n">
-        <v>820176.9067494166</v>
+        <v>759742.0366123307</v>
       </c>
       <c r="X4" t="n">
-        <v>142382.8961045183</v>
+        <v>545866.6549054694</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>375968.5416206653</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>270431.4912194303</v>
       </c>
       <c r="AA4" t="n">
-        <v>926418.7493091559</v>
+        <v>192643.7303208526</v>
       </c>
       <c r="AB4" t="n">
-        <v>817687.6753661591</v>
+        <v>6985.337485901575</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>28563.23285530757</v>
       </c>
     </row>
   </sheetData>
@@ -931,7 +2079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BE4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1215,6 +2363,11 @@
           <t>W4_55</t>
         </is>
       </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>W4_56</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1223,169 +2376,172 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>694.1804983211468</v>
+        <v>1.40935290726451</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.01267658561099095</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6470802716850583</v>
+        <v>0.1064141092439749</v>
       </c>
       <c r="E2" t="n">
-        <v>673.4369035897649</v>
+        <v>1.03163979581131</v>
       </c>
       <c r="F2" t="n">
-        <v>150.17701932121</v>
+        <v>18.63363967251064</v>
       </c>
       <c r="G2" t="n">
-        <v>220.4398498752324</v>
+        <v>36.52117196056425</v>
       </c>
       <c r="H2" t="n">
-        <v>1.941240815055176</v>
+        <v>20.14687555513437</v>
       </c>
       <c r="I2" t="n">
-        <v>26.31459771519239</v>
+        <v>37.18519597231865</v>
       </c>
       <c r="J2" t="n">
-        <v>481.8981933329449</v>
+        <v>38.18180016677498</v>
       </c>
       <c r="K2" t="n">
-        <v>497.8450862864025</v>
+        <v>30.28948348465095</v>
       </c>
       <c r="L2" t="n">
-        <v>22200.05810428777</v>
+        <v>223.3884756475867</v>
       </c>
       <c r="M2" t="n">
-        <v>2432.933301045837</v>
+        <v>114.0501693326618</v>
       </c>
       <c r="N2" t="n">
-        <v>6972.549307557573</v>
+        <v>86.07912562134921</v>
       </c>
       <c r="O2" t="n">
-        <v>166152.282348899</v>
+        <v>473.3688413290467</v>
       </c>
       <c r="P2" t="n">
-        <v>3006.30128461652</v>
+        <v>126.3565306257248</v>
       </c>
       <c r="Q2" t="n">
-        <v>-62.36287762214825</v>
+        <v>45.93535739522786</v>
       </c>
       <c r="R2" t="n">
-        <v>1562.411657347662</v>
+        <v>62.30881953447111</v>
       </c>
       <c r="S2" t="n">
-        <v>3566.549881928147</v>
+        <v>97.8304963410942</v>
       </c>
       <c r="T2" t="n">
-        <v>11587.43008423223</v>
+        <v>169.4441089175408</v>
       </c>
       <c r="U2" t="n">
-        <v>600.620409614047</v>
+        <v>58.99310679430147</v>
       </c>
       <c r="V2" t="n">
-        <v>859.2413727363696</v>
+        <v>63.05457895309268</v>
       </c>
       <c r="W2" t="n">
-        <v>4038.349661667827</v>
+        <v>110.9163346804491</v>
       </c>
       <c r="X2" t="n">
-        <v>19180.85447793553</v>
+        <v>182.9615811961786</v>
       </c>
       <c r="Y2" t="n">
-        <v>81.64786696696228</v>
+        <v>229.2376019535395</v>
       </c>
       <c r="Z2" t="n">
-        <v>177.7857775797725</v>
+        <v>229.2625331928949</v>
       </c>
       <c r="AA2" t="n">
-        <v>1623.764819586871</v>
+        <v>229.2626954032814</v>
       </c>
       <c r="AB2" t="n">
-        <v>1636.706425020572</v>
+        <v>229.2626954032814</v>
       </c>
       <c r="AC2" t="n">
-        <v>17815.95230463774</v>
+        <v>229.2626954032814</v>
       </c>
       <c r="AD2" t="n">
-        <v>37396.60469687509</v>
+        <v>229.2626954032814</v>
       </c>
       <c r="AE2" t="n">
-        <v>58149.94949934156</v>
+        <v>229.2626954032814</v>
       </c>
       <c r="AF2" t="n">
-        <v>72927.91952708436</v>
+        <v>229.2626954032814</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1.908464028287412</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>2.148414286251766</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>5.584657604758733</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17800.64152331065</v>
+        <v>89.84963950552026</v>
       </c>
       <c r="AK2" t="n">
-        <v>73126.14890346905</v>
+        <v>272.1499235755659</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>9.441985310087571</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>10.35806688138591</v>
       </c>
       <c r="AN2" t="n">
-        <v>879.7178892259641</v>
+        <v>28.54753247728631</v>
       </c>
       <c r="AO2" t="n">
-        <v>45799.40536165007</v>
+        <v>174.0478820343065</v>
       </c>
       <c r="AP2" t="n">
-        <v>84963.82415825812</v>
+        <v>350.4682899428415</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-326.0594780434378</v>
+        <v>7.915698805381671</v>
       </c>
       <c r="AR2" t="n">
-        <v>1473.759615192843</v>
+        <v>28.67502589728405</v>
       </c>
       <c r="AS2" t="n">
-        <v>576.3339440499417</v>
+        <v>3.203556443978116</v>
       </c>
       <c r="AT2" t="n">
-        <v>409.5179922641012</v>
+        <v>8.068024772447732</v>
       </c>
       <c r="AU2" t="n">
-        <v>417.9550569316867</v>
+        <v>5.473971742032205</v>
       </c>
       <c r="AV2" t="n">
-        <v>652.5523082948639</v>
+        <v>13.35494179088716</v>
       </c>
       <c r="AW2" t="n">
-        <v>34.48212309834538</v>
+        <v>4.467390336684831</v>
       </c>
       <c r="AX2" t="n">
-        <v>89.69754251300037</v>
+        <v>6.593941680509029</v>
       </c>
       <c r="AY2" t="n">
-        <v>193.245135065096</v>
+        <v>9.80956177717972</v>
       </c>
       <c r="AZ2" t="n">
-        <v>226801.367300292</v>
+        <v>511.8375220660125</v>
       </c>
       <c r="BA2" t="n">
-        <v>-54869.76360780945</v>
+        <v>512.4534516954541</v>
       </c>
       <c r="BB2" t="n">
-        <v>82702.44240971419</v>
+        <v>510.1950430541682</v>
       </c>
       <c r="BC2" t="n">
-        <v>144569.0262898382</v>
+        <v>511.0676100292105</v>
       </c>
       <c r="BD2" t="n">
-        <v>94223.06584812369</v>
+        <v>512.1968143498535</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>8.067925643251861</v>
       </c>
     </row>
     <row r="3">
@@ -1395,169 +2551,172 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>520.6353737408599</v>
+        <v>1.057014680448383</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.00950743920824321</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4853102037637939</v>
+        <v>0.0798105819329812</v>
       </c>
       <c r="E3" t="n">
-        <v>505.0776776923238</v>
+        <v>0.7737298468584826</v>
       </c>
       <c r="F3" t="n">
-        <v>112.6327644909075</v>
+        <v>13.97522975438297</v>
       </c>
       <c r="G3" t="n">
-        <v>165.3298874064242</v>
+        <v>27.39087897042317</v>
       </c>
       <c r="H3" t="n">
-        <v>1.455930611291381</v>
+        <v>15.11015666635078</v>
       </c>
       <c r="I3" t="n">
-        <v>19.73594828639428</v>
+        <v>27.88889697923899</v>
       </c>
       <c r="J3" t="n">
-        <v>361.4236449997086</v>
+        <v>28.63635012508123</v>
       </c>
       <c r="K3" t="n">
-        <v>373.3838147148018</v>
+        <v>22.71711261348822</v>
       </c>
       <c r="L3" t="n">
-        <v>16650.04357821583</v>
+        <v>167.54135673569</v>
       </c>
       <c r="M3" t="n">
-        <v>1824.699975784377</v>
+        <v>85.53762699949635</v>
       </c>
       <c r="N3" t="n">
-        <v>5229.411980668179</v>
+        <v>64.55934421601191</v>
       </c>
       <c r="O3" t="n">
-        <v>124614.2117616741</v>
+        <v>355.026630996785</v>
       </c>
       <c r="P3" t="n">
-        <v>2254.72596346239</v>
+        <v>94.7673979692936</v>
       </c>
       <c r="Q3" t="n">
-        <v>-46.77215821661122</v>
+        <v>34.45151804642089</v>
       </c>
       <c r="R3" t="n">
-        <v>1171.808743010746</v>
+        <v>46.73161465085333</v>
       </c>
       <c r="S3" t="n">
-        <v>2674.912411446109</v>
+        <v>73.37287225582065</v>
       </c>
       <c r="T3" t="n">
-        <v>8690.572563174177</v>
+        <v>127.0830816881556</v>
       </c>
       <c r="U3" t="n">
-        <v>450.4653072105356</v>
+        <v>44.24483009572611</v>
       </c>
       <c r="V3" t="n">
-        <v>644.4310295522771</v>
+        <v>47.29093421481952</v>
       </c>
       <c r="W3" t="n">
-        <v>3028.762246250871</v>
+        <v>83.18725101033679</v>
       </c>
       <c r="X3" t="n">
-        <v>14385.64085845166</v>
+        <v>137.221185897134</v>
       </c>
       <c r="Y3" t="n">
-        <v>61.23590022522168</v>
+        <v>171.9282014651546</v>
       </c>
       <c r="Z3" t="n">
-        <v>133.3393331848293</v>
+        <v>171.9468998946712</v>
       </c>
       <c r="AA3" t="n">
-        <v>1217.823614690154</v>
+        <v>171.9470215524611</v>
       </c>
       <c r="AB3" t="n">
-        <v>1227.52981876543</v>
+        <v>171.9470215524611</v>
       </c>
       <c r="AC3" t="n">
-        <v>13361.96422847831</v>
+        <v>171.9470215524611</v>
       </c>
       <c r="AD3" t="n">
-        <v>28047.4535226563</v>
+        <v>171.9470215524611</v>
       </c>
       <c r="AE3" t="n">
-        <v>43612.46212450616</v>
+        <v>171.9470215524611</v>
       </c>
       <c r="AF3" t="n">
-        <v>54695.93964531325</v>
+        <v>171.9470215524611</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1.431348021215559</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1.611310714688824</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>4.18849320356905</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13350.48114248299</v>
+        <v>67.38722962914019</v>
       </c>
       <c r="AK3" t="n">
-        <v>54844.61167760176</v>
+        <v>204.1124426816744</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>7.081488982565678</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>7.768550161039436</v>
       </c>
       <c r="AN3" t="n">
-        <v>659.7884169194732</v>
+        <v>21.41064935796474</v>
       </c>
       <c r="AO3" t="n">
-        <v>34349.55402123756</v>
+        <v>130.5359115257299</v>
       </c>
       <c r="AP3" t="n">
-        <v>63722.86811869348</v>
+        <v>262.8512174571311</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-244.5446085325796</v>
+        <v>5.936774104036253</v>
       </c>
       <c r="AR3" t="n">
-        <v>1105.319711394629</v>
+        <v>21.50626942296304</v>
       </c>
       <c r="AS3" t="n">
-        <v>432.2504580374562</v>
+        <v>2.402667332983587</v>
       </c>
       <c r="AT3" t="n">
-        <v>307.1384941980763</v>
+        <v>6.051018579335799</v>
       </c>
       <c r="AU3" t="n">
-        <v>313.4662926987644</v>
+        <v>4.105478806524154</v>
       </c>
       <c r="AV3" t="n">
-        <v>489.4142312211468</v>
+        <v>10.01620634316537</v>
       </c>
       <c r="AW3" t="n">
-        <v>25.86159232375903</v>
+        <v>3.350542752513624</v>
       </c>
       <c r="AX3" t="n">
-        <v>67.27315688475025</v>
+        <v>4.945456260381771</v>
       </c>
       <c r="AY3" t="n">
-        <v>144.933851298822</v>
+        <v>7.35717133288479</v>
       </c>
       <c r="AZ3" t="n">
-        <v>170101.0254752191</v>
+        <v>383.8781415495094</v>
       </c>
       <c r="BA3" t="n">
-        <v>-41152.32270585696</v>
+        <v>384.3400887715907</v>
       </c>
       <c r="BB3" t="n">
-        <v>62026.8318072858</v>
+        <v>382.6462822906261</v>
       </c>
       <c r="BC3" t="n">
-        <v>108426.7697173786</v>
+        <v>383.3007075219078</v>
       </c>
       <c r="BD3" t="n">
-        <v>70667.29938609262</v>
+        <v>384.1476107623902</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>6.050944232438895</v>
       </c>
     </row>
     <row r="4">
@@ -1567,169 +2726,172 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>867.7256229014332</v>
+        <v>1.761691134080638</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.01584573201373868</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8088503396063234</v>
+        <v>0.1330176365549686</v>
       </c>
       <c r="E4" t="n">
-        <v>841.7961294872067</v>
+        <v>1.289549744764137</v>
       </c>
       <c r="F4" t="n">
-        <v>187.7212741515125</v>
+        <v>23.29204959063828</v>
       </c>
       <c r="G4" t="n">
-        <v>275.5498123440404</v>
+        <v>45.65146495070529</v>
       </c>
       <c r="H4" t="n">
-        <v>2.426551018818969</v>
+        <v>25.18359444391796</v>
       </c>
       <c r="I4" t="n">
-        <v>32.89324714399048</v>
+        <v>46.4814949653983</v>
       </c>
       <c r="J4" t="n">
-        <v>602.3727416661809</v>
+        <v>47.72725020846872</v>
       </c>
       <c r="K4" t="n">
-        <v>622.3063578580031</v>
+        <v>37.86185435581368</v>
       </c>
       <c r="L4" t="n">
-        <v>27750.07263035972</v>
+        <v>279.2355945594833</v>
       </c>
       <c r="M4" t="n">
-        <v>3041.166626307295</v>
+        <v>142.5627116658272</v>
       </c>
       <c r="N4" t="n">
-        <v>8715.686634446971</v>
+        <v>107.5989070266865</v>
       </c>
       <c r="O4" t="n">
-        <v>207690.3529361238</v>
+        <v>591.7110516613081</v>
       </c>
       <c r="P4" t="n">
-        <v>3757.876605770649</v>
+        <v>157.945663282156</v>
       </c>
       <c r="Q4" t="n">
-        <v>-77.95359702768562</v>
+        <v>57.41919674403481</v>
       </c>
       <c r="R4" t="n">
-        <v>1953.014571684578</v>
+        <v>77.88602441808887</v>
       </c>
       <c r="S4" t="n">
-        <v>4458.187352410181</v>
+        <v>122.2881204263677</v>
       </c>
       <c r="T4" t="n">
-        <v>14484.28760529028</v>
+        <v>211.8051361469259</v>
       </c>
       <c r="U4" t="n">
-        <v>750.775512017558</v>
+        <v>73.74138349287682</v>
       </c>
       <c r="V4" t="n">
-        <v>1074.051715920464</v>
+        <v>78.81822369136583</v>
       </c>
       <c r="W4" t="n">
-        <v>5047.937077084784</v>
+        <v>138.6454183505613</v>
       </c>
       <c r="X4" t="n">
-        <v>23976.06809741942</v>
+        <v>228.7019764952233</v>
       </c>
       <c r="Y4" t="n">
-        <v>102.0598337087028</v>
+        <v>286.5470024419243</v>
       </c>
       <c r="Z4" t="n">
-        <v>222.2322219747156</v>
+        <v>286.5781664911186</v>
       </c>
       <c r="AA4" t="n">
-        <v>2029.70602448359</v>
+        <v>286.5783692541017</v>
       </c>
       <c r="AB4" t="n">
-        <v>2045.883031275717</v>
+        <v>286.5783692541017</v>
       </c>
       <c r="AC4" t="n">
-        <v>22269.94038079718</v>
+        <v>286.5783692541017</v>
       </c>
       <c r="AD4" t="n">
-        <v>46745.75587109385</v>
+        <v>286.5783692541017</v>
       </c>
       <c r="AE4" t="n">
-        <v>72687.43687417694</v>
+        <v>286.5783692541017</v>
       </c>
       <c r="AF4" t="n">
-        <v>91159.89940885545</v>
+        <v>286.5783692541017</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>2.385580035359264</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>2.685517857814706</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>6.980822005948415</v>
       </c>
       <c r="AJ4" t="n">
-        <v>22250.80190413831</v>
+        <v>112.3120493819003</v>
       </c>
       <c r="AK4" t="n">
-        <v>91407.68612933635</v>
+        <v>340.1874044694572</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>11.80248163760946</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>12.94758360173239</v>
       </c>
       <c r="AN4" t="n">
-        <v>1099.647361532456</v>
+        <v>35.68441559660788</v>
       </c>
       <c r="AO4" t="n">
-        <v>57249.25670206259</v>
+        <v>217.559852542883</v>
       </c>
       <c r="AP4" t="n">
-        <v>106204.7801978225</v>
+        <v>438.0853624285517</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-407.5743475542979</v>
+        <v>9.894623506727084</v>
       </c>
       <c r="AR4" t="n">
-        <v>1842.199518991052</v>
+        <v>35.84378237160506</v>
       </c>
       <c r="AS4" t="n">
-        <v>720.417430062427</v>
+        <v>4.004445554972644</v>
       </c>
       <c r="AT4" t="n">
-        <v>511.897490330127</v>
+        <v>10.08503096555966</v>
       </c>
       <c r="AU4" t="n">
-        <v>522.4438211646075</v>
+        <v>6.842464677540255</v>
       </c>
       <c r="AV4" t="n">
-        <v>815.69038536858</v>
+        <v>16.69367723860895</v>
       </c>
       <c r="AW4" t="n">
-        <v>43.10265387293174</v>
+        <v>5.584237920856038</v>
       </c>
       <c r="AX4" t="n">
-        <v>112.1219281412504</v>
+        <v>8.242427100636283</v>
       </c>
       <c r="AY4" t="n">
-        <v>241.55641883137</v>
+        <v>12.26195222147465</v>
       </c>
       <c r="AZ4" t="n">
-        <v>283501.7091253652</v>
+        <v>639.7969025825155</v>
       </c>
       <c r="BA4" t="n">
-        <v>-68587.20450976166</v>
+        <v>640.5668146193175</v>
       </c>
       <c r="BB4" t="n">
-        <v>103378.0530121429</v>
+        <v>637.7438038177102</v>
       </c>
       <c r="BC4" t="n">
-        <v>180711.282862298</v>
+        <v>638.834512536513</v>
       </c>
       <c r="BD4" t="n">
-        <v>117778.8323101546</v>
+        <v>640.2460179373168</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>10.08490705406482</v>
       </c>
     </row>
   </sheetData>
